--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56801.08237865045</v>
+        <v>-58688.6638950521</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409916.3227569596</v>
+        <v>221502.6349821028</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>110.8962306416539</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.56696428347033</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.1024007326841</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>151.4279672984682</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>321.5285013720857</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>186.4535563579613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>146.6172180961422</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>198.5042409706756</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>69.4041478010444</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.26584747916387</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>66.90445977359147</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>12.90368342835882</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>161.92385856539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>143.2877162712178</v>
       </c>
       <c r="V19" t="n">
-        <v>57.95965870878122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.56452900498737</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>46.08866211900139</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>14.68583996414632</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>57.8501749430005</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>51.20625352634659</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>85.42291167995812</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>43.97186549014164</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>76.90718818968276</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857213</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
         <v>78.30207251692848</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463173</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789545</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2135.291852247419</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.509002921313</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>450.2477713451374</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>450.2477713451374</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>450.2477713451374</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>450.2477713451374</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>450.2477713451374</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1207.668958723993</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="C5" t="n">
-        <v>1207.668958723993</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.808290699805</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1207.668958723993</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4644,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>539.7920585923321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y7" t="n">
-        <v>539.7920585923321</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>550.1048066920875</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>550.1048066920875</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>550.1048066920875</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>543.1593059428841</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>529.235901881475</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>202.0411819174778</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.752638628377</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>2024.243304314563</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.243304314563</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>124.0481816193992</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>293.0479818810668</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>499.8094658942273</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>729.7725717625765</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1050.107891292278</v>
+        <v>1264.669083615011</v>
       </c>
       <c r="N12" t="n">
-        <v>1854.519469556429</v>
+        <v>2069.080661879162</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>282.247067063013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>282.247067063013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>282.247067063013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,10 +5197,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045605</v>
+        <v>318.009670603816</v>
       </c>
       <c r="X13" t="n">
-        <v>503.0396462065431</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y13" t="n">
-        <v>282.247067063013</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,16 +5294,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>327.180197328635</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>647.5155168583368</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N15" t="n">
-        <v>1451.927095122488</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O15" t="n">
-        <v>2121.390856425147</v>
+        <v>1953.178696008814</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.5090525528009</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>260.6691235773515</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>1335.356817461549</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W16" t="n">
-        <v>1045.939647424588</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X16" t="n">
-        <v>817.9500965265707</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.1575173830406</v>
+        <v>260.6691235773515</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>452.5377573864724</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M18" t="n">
-        <v>1131.836193506796</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N18" t="n">
-        <v>1476.356849144414</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O18" t="n">
-        <v>2145.820610447073</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>930.4757783223366</v>
       </c>
       <c r="V19" t="n">
-        <v>1151.242521964611</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="W19" t="n">
-        <v>861.8253519276506</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X19" t="n">
-        <v>633.8358010296332</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.0432218861031</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5756,19 +5756,19 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M21" t="n">
-        <v>1897.067196363111</v>
+        <v>813.8367190106992</v>
       </c>
       <c r="N21" t="n">
-        <v>1897.067196363111</v>
+        <v>1158.357374648317</v>
       </c>
       <c r="O21" t="n">
-        <v>2145.820610447073</v>
+        <v>1827.821135950976</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2348.121757686724</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>826.1356072130308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>507.0827848727881</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.770281663976</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V22" t="n">
-        <v>1228.576651186801</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>1228.576651186801</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>1228.576651186801</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>1007.78407204327</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5981,16 +5981,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6072,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>699.5585886570829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.893908186785</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.414563824403</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O24" t="n">
-        <v>2033.878325127062</v>
+        <v>1891.427750556797</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2411.728372292545</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>406.8543143225553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>406.8543143225553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>406.8543143225553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>258.9412207401622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>112.0512732422518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>112.0512732422518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>112.0512732422518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,19 +6148,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.481750413457</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1240.561740329009</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1016.776325118515</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>727.647686332073</v>
       </c>
       <c r="V25" t="n">
-        <v>1098.712528333286</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W25" t="n">
-        <v>809.2953582963252</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>809.2953582963252</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>588.502779152795</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6236,16 +6236,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014291</v>
@@ -6254,22 +6254,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>243.0706902632332</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028583</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L27" t="n">
-        <v>327.180197328635</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M27" t="n">
-        <v>647.5155168583367</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>397.7517393246783</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,16 +6388,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655736</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286131</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X28" t="n">
-        <v>579.400204154918</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y28" t="n">
-        <v>579.400204154918</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542169</v>
+        <v>494.846668111023</v>
       </c>
       <c r="C31" t="n">
-        <v>395.1164042065991</v>
+        <v>381.6713504644869</v>
       </c>
       <c r="D31" t="n">
-        <v>300.7606300756341</v>
+        <v>287.315576333522</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756341</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590945</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818917</v>
+        <v>957.9946671386975</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652452</v>
+        <v>785.7659815220511</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030859</v>
+        <v>620.7342676598918</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,19 +6689,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,19 +6716,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6740,10 +6740,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>865.5852378527471</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506728</v>
@@ -6847,22 +6847,22 @@
         <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6920,64 +6920,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,13 +7099,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,22 +7166,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7193,10 +7193,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2072.390202643127</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7406,13 +7406,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,31 +7427,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1953.178696008814</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>286.2397445819419</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>134.7092162509733</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9720,7 +9720,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10434,10 +10434,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>396.4775252873442</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>244.2385421467092</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>112.1681151674053</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>185.2331835502365</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>135.7117895898535</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>90.21378475843801</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>142.9496361273596</v>
       </c>
       <c r="V19" t="n">
-        <v>194.1779846150468</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>52.39982339880542</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>206.0489812048266</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>95.73340550012567</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>52.11417746079231</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,19 +24655,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>200.9313897974814</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>140.286743709079</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.07169897992917</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>14.32351782832928</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>55.21598883571486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.146372179473451e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-2.720046538017391e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1114432.820252471</v>
+        <v>1114432.82025247</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1114432.82025247</v>
+        <v>1114432.820252471</v>
       </c>
     </row>
     <row r="11">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
+        <v>254168.8888295107</v>
+      </c>
+      <c r="F2" t="n">
         <v>254168.8888295108</v>
-      </c>
-      <c r="F2" t="n">
-        <v>254168.8888295109</v>
       </c>
       <c r="G2" t="n">
         <v>254168.8888295108</v>
@@ -26332,28 +26332,28 @@
         <v>254168.8888295108</v>
       </c>
       <c r="I2" t="n">
+        <v>254168.888829511</v>
+      </c>
+      <c r="J2" t="n">
         <v>254168.8888295109</v>
       </c>
-      <c r="J2" t="n">
-        <v>254168.8888295108</v>
-      </c>
       <c r="K2" t="n">
-        <v>264434.3892744252</v>
+        <v>264434.3892744257</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="M2" t="n">
         <v>266838.5752058923</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284583</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086694</v>
+        <v>10342.90680086673</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284585</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.79369057589</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758784</v>
+        <v>787.7936905759209</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759512</v>
+        <v>787.7936905759054</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477242</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189642</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189638</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189637</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189642</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-545047.5212526809</v>
       </c>
       <c r="C6" t="n">
-        <v>44920.35796186369</v>
+        <v>44920.3579618638</v>
       </c>
       <c r="D6" t="n">
         <v>44920.35796186363</v>
       </c>
       <c r="E6" t="n">
-        <v>-363766.2672866778</v>
+        <v>-363863.7264126499</v>
       </c>
       <c r="F6" t="n">
-        <v>161393.7691902184</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="G6" t="n">
-        <v>161393.7691902183</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="H6" t="n">
-        <v>161393.7691902183</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="I6" t="n">
-        <v>161393.7691902184</v>
+        <v>161296.3100642464</v>
       </c>
       <c r="J6" t="n">
-        <v>-15029.45000237465</v>
+        <v>-15126.90912834668</v>
       </c>
       <c r="K6" t="n">
-        <v>104691.1592365843</v>
+        <v>104672.6654986503</v>
       </c>
       <c r="L6" t="n">
-        <v>135573.9816531036</v>
+        <v>135573.9816531038</v>
       </c>
       <c r="M6" t="n">
-        <v>11115.87322013346</v>
+        <v>11115.87322013317</v>
       </c>
       <c r="N6" t="n">
-        <v>145916.8884539705</v>
+        <v>145916.8884539704</v>
       </c>
       <c r="O6" t="n">
-        <v>145916.8884539705</v>
+        <v>145916.8884539707</v>
       </c>
       <c r="P6" t="n">
-        <v>101754.2831511249</v>
+        <v>101754.2831511245</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964069</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>216.856027828481</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.6709743725833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>11.17947350929364</v>
+        <v>63.13204062090065</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>231.3058743650124</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>33.1545402485973</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>24.37936745074313</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.13109699413346</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>5.314098148719012</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>171.2268597077935</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>86.76674104075074</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,13 +31838,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0339517411533</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31856,10 +31856,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,10 +32075,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -32087,25 +32087,25 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>252.6713260851628</v>
+        <v>183.8504064050096</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,16 +32242,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>362.5890066571938</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32552,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>291.3194390094541</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>197.4011889684696</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32792,31 +32792,31 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>376.1397892206544</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>133.1520833060241</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32880,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32892,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,16 +33017,16 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>148.0734588039825</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,25 +33035,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>148.1449823495588</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041505</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,19 +33254,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>144.2740676092158</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -33275,22 +33275,22 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33418,40 +33418,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33506,28 +33506,28 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33591,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33603,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.647069592721</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,43 +33728,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>100.5826050876806</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,43 +33965,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>291.4295500091223</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,43 +34202,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565536</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,13 +34439,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34457,25 +34457,25 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>183.8504064050096</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6577497793729</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>144.1057106599236</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
@@ -35504,13 +35504,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,19 +35735,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>437.1596873107698</v>
+        <v>368.3387676306165</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>686.1600364851754</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>3.367504167639975</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>614.8904688374357</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>267.4967026182972</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>608.4257547442394</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178376</v>
@@ -36455,10 +36455,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>203.2475969558517</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>147.3268674777246</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,10 +36683,10 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>496.145644609779</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303347</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>376.5600331328008</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>265.1358132040108</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178376</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,7 +37233,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081142</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>424.1536349156622</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,7 +37470,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>475.9179112347292</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>102.1045082246909</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>368.3387676306165</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
